--- a/data/apps-master/1986.xlsx
+++ b/data/apps-master/1986.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB86C4A-DD8F-604B-ACC4-78F4F604C10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DC877-371C-064B-8CC2-029046F017A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Ronnie Moore</t>
   </si>
   <si>
-    <t>Horwood</t>
-  </si>
-  <si>
     <t>Gary Wiliams</t>
   </si>
   <si>
@@ -423,16 +420,16 @@
     <t>Steve Edwards</t>
   </si>
   <si>
-    <t>Hay</t>
-  </si>
-  <si>
     <t>Steve Bullock</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Alan Hay</t>
   </si>
   <si>
-    <t>Carmody</t>
+    <t>Mike Carmody</t>
+  </si>
+  <si>
+    <t>Neil Horwood</t>
   </si>
 </sst>
 </file>
@@ -785,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -863,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -903,7 +900,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -923,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -943,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -963,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1003,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1023,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1043,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1063,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1083,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1103,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1123,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1143,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1163,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1183,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1203,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1223,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1243,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1263,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1283,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1303,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1323,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1343,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1363,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1383,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1403,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1423,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1443,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1463,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1483,7 +1480,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1503,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1526,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1546,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1566,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1606,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1626,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1646,7 +1643,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1666,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1686,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1706,7 +1703,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1726,7 +1723,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1746,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1766,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1786,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1806,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1826,7 +1823,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1846,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1866,7 +1863,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1881,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="G31:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -2019,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2039,7 +2036,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2059,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2079,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2099,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2119,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2139,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -2159,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -2179,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -2239,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2259,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2319,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2339,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2359,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2379,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2399,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2974,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3198,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3295,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -3315,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -3355,7 +3352,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -3375,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19">
         <v>11</v>
@@ -3461,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3478,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -3498,13 +3495,13 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3521,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26">
         <v>11</v>
@@ -3541,7 +3538,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F27">
         <v>11</v>
@@ -3561,7 +3558,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -3704,7 +3701,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -3724,7 +3721,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -3744,7 +3741,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <v>11</v>
@@ -3764,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>11</v>
@@ -3864,7 +3861,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43">
         <v>11</v>
@@ -3884,7 +3881,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44">
         <v>11</v>
@@ -3953,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3976,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4088,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4172,7 +4169,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4189,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4223,7 +4220,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4274,7 +4271,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4393,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4563,7 +4560,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4648,7 +4645,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4665,7 +4662,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4835,7 +4832,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,7 +4849,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5107,7 +5104,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5141,7 +5138,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5175,7 +5172,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,10 +5189,10 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" t="s">
         <v>114</v>
-      </c>
-      <c r="G63" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5229,19 +5226,19 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
         <v>105</v>
       </c>
       <c r="G65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" t="s">
         <v>115</v>
       </c>
-      <c r="H65" t="s">
+      <c r="M65" t="s">
         <v>116</v>
-      </c>
-      <c r="M65" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5311,7 +5308,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -5331,7 +5328,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -5351,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5371,7 +5368,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5391,7 +5388,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -5411,7 +5408,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -5431,7 +5428,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -5451,7 +5448,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -5471,7 +5468,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -5491,7 +5488,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -5511,7 +5508,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5531,7 +5528,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -5551,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5571,7 +5568,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -5591,7 +5588,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -5611,7 +5608,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -5631,7 +5628,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -5651,7 +5648,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5671,7 +5668,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -5691,7 +5688,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -5711,7 +5708,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5731,7 +5728,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -5751,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -5771,7 +5768,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5791,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -5811,7 +5808,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5831,7 +5828,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5851,7 +5848,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5871,7 +5868,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5891,7 +5888,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -5911,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -5931,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -5951,7 +5948,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5971,7 +5968,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -5991,7 +5988,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6011,7 +6008,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -6031,7 +6028,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -6051,7 +6048,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -6071,7 +6068,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -6091,7 +6088,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -6111,7 +6108,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -6131,7 +6128,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -6151,7 +6148,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -6171,7 +6168,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -6191,7 +6188,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -6211,7 +6208,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -6231,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -6251,7 +6248,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -6271,7 +6268,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -6291,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -6311,7 +6308,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -6331,7 +6328,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -6346,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6427,7 +6424,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -6447,7 +6444,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -6467,7 +6464,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -6487,7 +6484,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -6507,7 +6504,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -6527,7 +6524,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -6547,7 +6544,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -6567,7 +6564,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -6587,7 +6584,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -6607,7 +6604,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -6627,7 +6624,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -6730,7 +6727,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -6850,7 +6847,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -6870,7 +6867,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -6890,7 +6887,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -6910,7 +6907,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -6930,7 +6927,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -6950,7 +6947,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -7190,7 +7187,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -7390,7 +7387,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -7410,7 +7407,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -7430,7 +7427,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -7445,7 +7442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -7503,7 +7500,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -7523,7 +7520,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -7543,7 +7540,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -7563,7 +7560,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -7583,7 +7580,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -7603,7 +7600,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -7623,7 +7620,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -7643,7 +7640,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -7663,7 +7660,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -7686,7 +7683,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -7706,7 +7703,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -7766,7 +7763,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -7786,7 +7783,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -7806,7 +7803,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -7826,7 +7823,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -7846,7 +7843,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -7866,7 +7863,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -7886,7 +7883,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -7906,7 +7903,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -7926,7 +7923,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -7946,7 +7943,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -7969,7 +7966,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -7989,7 +7986,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -8009,7 +8006,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -8029,7 +8026,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -8049,7 +8046,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -8069,7 +8066,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -8089,7 +8086,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -8109,7 +8106,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -8129,7 +8126,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -8149,7 +8146,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -8169,7 +8166,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -8189,7 +8186,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -8209,7 +8206,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -8229,7 +8226,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -8249,7 +8246,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -8269,7 +8266,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -8289,7 +8286,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -8309,7 +8306,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -8329,7 +8326,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -8349,7 +8346,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -8369,7 +8366,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -8389,7 +8386,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -8409,7 +8406,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -8429,7 +8426,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -8449,7 +8446,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -8469,7 +8466,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -8489,7 +8486,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -8544,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8602,7 +8599,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8622,7 +8619,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8642,7 +8639,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8862,7 +8859,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -8882,7 +8879,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -8902,7 +8899,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -8922,7 +8919,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -9022,7 +9019,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -9042,7 +9039,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -9068,7 +9065,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -9091,7 +9088,7 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -9114,7 +9111,7 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -9251,7 +9248,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -9271,7 +9268,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -9331,7 +9328,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -9351,7 +9348,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -9391,7 +9388,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -9431,7 +9428,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -9451,7 +9448,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -9471,7 +9468,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -9491,7 +9488,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -9511,7 +9508,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -9531,7 +9528,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -9551,7 +9548,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -9571,7 +9568,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -9591,7 +9588,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -9611,7 +9608,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -9631,7 +9628,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -9646,8 +9643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35:AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9764,7 +9761,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -9784,7 +9781,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -9844,7 +9841,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -9864,7 +9861,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -9884,7 +9881,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -9904,7 +9901,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -9924,13 +9921,13 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -9950,7 +9947,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -9970,7 +9967,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -9990,7 +9987,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -10013,7 +10010,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -10053,7 +10050,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -10073,13 +10070,13 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -10096,7 +10093,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -10116,7 +10113,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -10136,7 +10133,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -10176,7 +10173,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -10196,7 +10193,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -10216,7 +10213,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -10236,7 +10233,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -10256,7 +10253,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -10276,7 +10273,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -10751,8 +10748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11209,7 +11206,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -11672,7 +11669,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45">
         <v>7</v>
@@ -11692,7 +11689,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -11712,7 +11709,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -11732,13 +11729,13 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -11752,13 +11749,13 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -11772,13 +11769,13 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -11798,7 +11795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -11818,7 +11815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -11836,6 +11833,9 @@
       </c>
       <c r="F53">
         <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -12148,7 +12148,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -12511,7 +12511,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -12871,7 +12871,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F50">
         <v>8</v>
@@ -12891,7 +12891,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -12911,7 +12911,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -12931,7 +12931,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -12946,8 +12946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13004,7 +13004,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -13024,7 +13024,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -13044,7 +13044,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -13064,7 +13064,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -13290,7 +13290,7 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -13407,7 +13407,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -13513,7 +13513,7 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -13530,7 +13530,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -13590,7 +13590,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -13610,7 +13610,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -13630,13 +13630,13 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -13653,13 +13653,13 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -13756,7 +13756,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>9</v>
@@ -13776,7 +13776,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -13796,7 +13796,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F41">
         <v>9</v>
@@ -13836,13 +13836,13 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -13859,7 +13859,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F44">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F45">
         <v>9</v>
@@ -13899,7 +13899,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -14005,7 +14005,7 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -14022,7 +14022,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -14042,7 +14042,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53">
         <v>9</v>
